--- a/TimeLog/RetroPc_Timesheet_IgorNiebylski.xlsx
+++ b/TimeLog/RetroPc_Timesheet_IgorNiebylski.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igorn\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igorn\IdeaProjects\RetroPc\TimeLog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42F0859E-9CB3-461D-B996-579B9C4F456E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B74179-EB72-4977-B96C-B0329BA240B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EC202389-3F07-4767-9D43-8DF0FEFE580C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EC202389-3F07-4767-9D43-8DF0FEFE580C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Zadanie</t>
   </si>
@@ -52,6 +52,18 @@
   </si>
   <si>
     <t>Pisanie przykladowego programu</t>
+  </si>
+  <si>
+    <t>Zaznajomienie się z tematem projektu</t>
+  </si>
+  <si>
+    <t>Zaznajomienie się z technologią projektu (Kotlin, Android App)</t>
+  </si>
+  <si>
+    <t>Dobór narzedzi</t>
+  </si>
+  <si>
+    <t>Dobór dokumentacji, źródeł</t>
   </si>
 </sst>
 </file>
@@ -459,17 +471,17 @@
   <dimension ref="B2:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:D8"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1"/>
-    <col min="2" max="2" width="52.28515625" customWidth="1"/>
-    <col min="3" max="4" width="26.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="52.33203125" customWidth="1"/>
+    <col min="3" max="4" width="26.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -480,68 +492,112 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
         <v>2</v>
       </c>
-      <c r="D3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <v>0.5</v>
       </c>
       <c r="D6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="D9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>0.5</v>
+      </c>
+      <c r="D10">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
         <v>8</v>
       </c>
-      <c r="C7">
+      <c r="C11">
         <v>0.5</v>
       </c>
-      <c r="D7">
+      <c r="D11">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>4</v>
       </c>
       <c r="D29">
         <f>SUM(D3:D28)</f>
-        <v>18.5</v>
+        <v>37.875</v>
       </c>
     </row>
   </sheetData>

--- a/TimeLog/RetroPc_Timesheet_IgorNiebylski.xlsx
+++ b/TimeLog/RetroPc_Timesheet_IgorNiebylski.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igorn\IdeaProjects\RetroPc\TimeLog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igorn\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B74179-EB72-4977-B96C-B0329BA240B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{349C9AA0-B0BE-479E-A5C8-DF49D29DBFF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EC202389-3F07-4767-9D43-8DF0FEFE580C}"/>
+    <workbookView xWindow="3420" yWindow="3420" windowWidth="21600" windowHeight="11295" xr2:uid="{EC202389-3F07-4767-9D43-8DF0FEFE580C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Zadanie</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Pisanie implementacji szyny pamięci</t>
   </si>
   <si>
-    <t>Pisanie implementacji procesora</t>
-  </si>
-  <si>
     <t>Debugowanie procesora, poprawianie błędów</t>
   </si>
   <si>
@@ -64,6 +61,18 @@
   </si>
   <si>
     <t>Dobór dokumentacji, źródeł</t>
+  </si>
+  <si>
+    <t>Pisanie trybów adresowania procesora</t>
+  </si>
+  <si>
+    <t>Pisnie rozkazów procesora</t>
+  </si>
+  <si>
+    <t>Pisanie implementacji funcji procesora (np. reset)</t>
+  </si>
+  <si>
+    <t>Testowanie aplikacji</t>
   </si>
 </sst>
 </file>
@@ -471,17 +480,17 @@
   <dimension ref="B2:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" customWidth="1"/>
-    <col min="2" max="2" width="52.33203125" customWidth="1"/>
-    <col min="3" max="4" width="26.33203125" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" width="52.28515625" customWidth="1"/>
+    <col min="3" max="4" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -492,9 +501,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>5</v>
@@ -503,9 +512,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -514,9 +523,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -525,9 +534,9 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6">
         <v>0.5</v>
@@ -536,7 +545,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>3</v>
       </c>
@@ -547,7 +556,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>5</v>
       </c>
@@ -555,23 +564,23 @@
         <v>2</v>
       </c>
       <c r="D8">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>6</v>
-      </c>
-      <c r="C9">
-        <v>4</v>
-      </c>
-      <c r="D9">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>7</v>
       </c>
       <c r="C10">
         <v>0.5</v>
@@ -580,9 +589,9 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11">
         <v>0.5</v>
@@ -591,13 +600,46 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>4</v>
       </c>
       <c r="D29">
         <f>SUM(D3:D28)</f>
-        <v>37.875</v>
+        <v>51.125</v>
       </c>
     </row>
   </sheetData>

--- a/TimeLog/RetroPc_Timesheet_IgorNiebylski.xlsx
+++ b/TimeLog/RetroPc_Timesheet_IgorNiebylski.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igorn\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{349C9AA0-B0BE-479E-A5C8-DF49D29DBFF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A383F7EB-74A7-4434-86D7-5DFF922564CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="3420" windowWidth="21600" windowHeight="11295" xr2:uid="{EC202389-3F07-4767-9D43-8DF0FEFE580C}"/>
+    <workbookView xWindow="5970" yWindow="3810" windowWidth="21600" windowHeight="11295" xr2:uid="{EC202389-3F07-4767-9D43-8DF0FEFE580C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Zadanie</t>
   </si>
@@ -54,9 +54,6 @@
     <t>Zaznajomienie się z tematem projektu</t>
   </si>
   <si>
-    <t>Zaznajomienie się z technologią projektu (Kotlin, Android App)</t>
-  </si>
-  <si>
     <t>Dobór narzedzi</t>
   </si>
   <si>
@@ -73,6 +70,18 @@
   </si>
   <si>
     <t>Testowanie aplikacji</t>
+  </si>
+  <si>
+    <t>Resetowanie szyny przy załadowaniu nowego programu</t>
+  </si>
+  <si>
+    <t>Testy reprezentacji pamięci w ui</t>
+  </si>
+  <si>
+    <t>Automatyczne zatrzymywanie egzekucji kodu w ui</t>
+  </si>
+  <si>
+    <t>Zaznajomienie się z technologią projektu (Kotlin, Android Studio)</t>
   </si>
 </sst>
 </file>
@@ -479,8 +488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1499284A-9C42-4BE7-A7B5-FC0FB6F4FD50}">
   <dimension ref="B2:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -514,7 +523,7 @@
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -525,24 +534,24 @@
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
@@ -569,7 +578,7 @@
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -602,7 +611,7 @@
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12">
         <v>5</v>
@@ -613,33 +622,66 @@
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
       <c r="D13">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>15</v>
       </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>2.25</v>
-      </c>
-    </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>0.5</v>
+      </c>
+      <c r="D17">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>4</v>
       </c>
       <c r="D29">
         <f>SUM(D3:D28)</f>
-        <v>51.125</v>
+        <v>52.25</v>
       </c>
     </row>
   </sheetData>

--- a/TimeLog/RetroPc_Timesheet_IgorNiebylski.xlsx
+++ b/TimeLog/RetroPc_Timesheet_IgorNiebylski.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igorn\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igorn\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42F0859E-9CB3-461D-B996-579B9C4F456E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A383F7EB-74A7-4434-86D7-5DFF922564CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EC202389-3F07-4767-9D43-8DF0FEFE580C}"/>
+    <workbookView xWindow="5970" yWindow="3810" windowWidth="21600" windowHeight="11295" xr2:uid="{EC202389-3F07-4767-9D43-8DF0FEFE580C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Zadanie</t>
   </si>
@@ -45,13 +45,43 @@
     <t>Pisanie implementacji szyny pamięci</t>
   </si>
   <si>
-    <t>Pisanie implementacji procesora</t>
-  </si>
-  <si>
     <t>Debugowanie procesora, poprawianie błędów</t>
   </si>
   <si>
     <t>Pisanie przykladowego programu</t>
+  </si>
+  <si>
+    <t>Zaznajomienie się z tematem projektu</t>
+  </si>
+  <si>
+    <t>Dobór narzedzi</t>
+  </si>
+  <si>
+    <t>Dobór dokumentacji, źródeł</t>
+  </si>
+  <si>
+    <t>Pisanie trybów adresowania procesora</t>
+  </si>
+  <si>
+    <t>Pisnie rozkazów procesora</t>
+  </si>
+  <si>
+    <t>Pisanie implementacji funcji procesora (np. reset)</t>
+  </si>
+  <si>
+    <t>Testowanie aplikacji</t>
+  </si>
+  <si>
+    <t>Resetowanie szyny przy załadowaniu nowego programu</t>
+  </si>
+  <si>
+    <t>Testy reprezentacji pamięci w ui</t>
+  </si>
+  <si>
+    <t>Automatyczne zatrzymywanie egzekucji kodu w ui</t>
+  </si>
+  <si>
+    <t>Zaznajomienie się z technologią projektu (Kotlin, Android Studio)</t>
   </si>
 </sst>
 </file>
@@ -458,8 +488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1499284A-9C42-4BE7-A7B5-FC0FB6F4FD50}">
   <dimension ref="B2:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:D8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,66 +512,176 @@
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
         <v>2</v>
-      </c>
-      <c r="D3">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4">
-        <v>2.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10">
         <v>0.5</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>0.5</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>0.5</v>
+      </c>
+      <c r="D17">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>4</v>
       </c>
       <c r="D29">
         <f>SUM(D3:D28)</f>
-        <v>18.5</v>
+        <v>52.25</v>
       </c>
     </row>
   </sheetData>
